--- a/results/second1.xlsx
+++ b/results/second1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>X1</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Gen 3 best individual</t>
-  </si>
-  <si>
-    <t>Gen 4 best individual</t>
   </si>
 </sst>
 </file>
@@ -77,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,7 +85,6 @@
     <col min="4" max="4" width="23.4375" customWidth="true"/>
     <col min="5" max="5" width="23.4375" customWidth="true"/>
     <col min="6" max="6" width="23.4375" customWidth="true"/>
-    <col min="7" max="7" width="23.4375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -110,9 +106,6 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -122,18 +115,15 @@
         <v>-1.269589655</v>
       </c>
       <c r="C2">
-        <f>SIN(0.799192046051646+A2)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A2)</f>
       </c>
       <c r="D2">
-        <f>SIN(0.799192046051646+A2)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A2)</f>
       </c>
       <c r="E2">
-        <f>1.57177657234968*SIN(0.582390163355051+A2)</f>
+        <f>SIN(A2)+SIN(COS(A2))</f>
       </c>
       <c r="F2">
-        <f>1.68689002995008*COS(0.775844995210273-A2)</f>
-      </c>
-      <c r="G2">
         <f>COS(A2)+SIN(A2)</f>
       </c>
     </row>
@@ -145,18 +135,15 @@
         <v>0.949605922</v>
       </c>
       <c r="C3">
-        <f>SIN(0.799192046051646+A3)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A3)</f>
       </c>
       <c r="D3">
-        <f>SIN(0.799192046051646+A3)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A3)</f>
       </c>
       <c r="E3">
-        <f>1.57177657234968*SIN(0.582390163355051+A3)</f>
+        <f>SIN(A3)+SIN(COS(A3))</f>
       </c>
       <c r="F3">
-        <f>1.68689002995008*COS(0.775844995210273-A3)</f>
-      </c>
-      <c r="G3">
         <f>COS(A3)+SIN(A3)</f>
       </c>
     </row>
@@ -168,18 +155,15 @@
         <v>-0.925906829</v>
       </c>
       <c r="C4">
-        <f>SIN(0.799192046051646+A4)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A4)</f>
       </c>
       <c r="D4">
-        <f>SIN(0.799192046051646+A4)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A4)</f>
       </c>
       <c r="E4">
-        <f>1.57177657234968*SIN(0.582390163355051+A4)</f>
+        <f>SIN(A4)+SIN(COS(A4))</f>
       </c>
       <c r="F4">
-        <f>1.68689002995008*COS(0.775844995210273-A4)</f>
-      </c>
-      <c r="G4">
         <f>COS(A4)+SIN(A4)</f>
       </c>
     </row>
@@ -191,18 +175,15 @@
         <v>1.22347053</v>
       </c>
       <c r="C5">
-        <f>SIN(0.799192046051646+A5)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A5)</f>
       </c>
       <c r="D5">
-        <f>SIN(0.799192046051646+A5)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A5)</f>
       </c>
       <c r="E5">
-        <f>1.57177657234968*SIN(0.582390163355051+A5)</f>
+        <f>SIN(A5)+SIN(COS(A5))</f>
       </c>
       <c r="F5">
-        <f>1.68689002995008*COS(0.775844995210273-A5)</f>
-      </c>
-      <c r="G5">
         <f>COS(A5)+SIN(A5)</f>
       </c>
     </row>
@@ -214,18 +195,15 @@
         <v>-0.30006824</v>
       </c>
       <c r="C6">
-        <f>SIN(0.799192046051646+A6)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A6)</f>
       </c>
       <c r="D6">
-        <f>SIN(0.799192046051646+A6)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A6)</f>
       </c>
       <c r="E6">
-        <f>1.57177657234968*SIN(0.582390163355051+A6)</f>
+        <f>SIN(A6)+SIN(COS(A6))</f>
       </c>
       <c r="F6">
-        <f>1.68689002995008*COS(0.775844995210273-A6)</f>
-      </c>
-      <c r="G6">
         <f>COS(A6)+SIN(A6)</f>
       </c>
     </row>
@@ -237,18 +215,15 @@
         <v>1.310902282</v>
       </c>
       <c r="C7">
-        <f>SIN(0.799192046051646+A7)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A7)</f>
       </c>
       <c r="D7">
-        <f>SIN(0.799192046051646+A7)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A7)</f>
       </c>
       <c r="E7">
-        <f>1.57177657234968*SIN(0.582390163355051+A7)</f>
+        <f>SIN(A7)+SIN(COS(A7))</f>
       </c>
       <c r="F7">
-        <f>1.68689002995008*COS(0.775844995210273-A7)</f>
-      </c>
-      <c r="G7">
         <f>COS(A7)+SIN(A7)</f>
       </c>
     </row>
@@ -260,18 +235,15 @@
         <v>0.647274933</v>
       </c>
       <c r="C8">
-        <f>SIN(0.799192046051646+A8)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A8)</f>
       </c>
       <c r="D8">
-        <f>SIN(0.799192046051646+A8)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A8)</f>
       </c>
       <c r="E8">
-        <f>1.57177657234968*SIN(0.582390163355051+A8)</f>
+        <f>SIN(A8)+SIN(COS(A8))</f>
       </c>
       <c r="F8">
-        <f>1.68689002995008*COS(0.775844995210273-A8)</f>
-      </c>
-      <c r="G8">
         <f>COS(A8)+SIN(A8)</f>
       </c>
     </row>
@@ -283,18 +255,15 @@
         <v>0.007634119</v>
       </c>
       <c r="C9">
-        <f>SIN(0.799192046051646+A9)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A9)</f>
       </c>
       <c r="D9">
-        <f>SIN(0.799192046051646+A9)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A9)</f>
       </c>
       <c r="E9">
-        <f>1.57177657234968*SIN(0.582390163355051+A9)</f>
+        <f>SIN(A9)+SIN(COS(A9))</f>
       </c>
       <c r="F9">
-        <f>1.68689002995008*COS(0.775844995210273-A9)</f>
-      </c>
-      <c r="G9">
         <f>COS(A9)+SIN(A9)</f>
       </c>
     </row>
@@ -306,18 +275,15 @@
         <v>1.3570081</v>
       </c>
       <c r="C10">
-        <f>SIN(0.799192046051646+A10)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A10)</f>
       </c>
       <c r="D10">
-        <f>SIN(0.799192046051646+A10)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A10)</f>
       </c>
       <c r="E10">
-        <f>1.57177657234968*SIN(0.582390163355051+A10)</f>
+        <f>SIN(A10)+SIN(COS(A10))</f>
       </c>
       <c r="F10">
-        <f>1.68689002995008*COS(0.775844995210273-A10)</f>
-      </c>
-      <c r="G10">
         <f>COS(A10)+SIN(A10)</f>
       </c>
     </row>
@@ -329,18 +295,15 @@
         <v>0.79314534</v>
       </c>
       <c r="C11">
-        <f>SIN(0.799192046051646+A11)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A11)</f>
       </c>
       <c r="D11">
-        <f>SIN(0.799192046051646+A11)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A11)</f>
       </c>
       <c r="E11">
-        <f>1.57177657234968*SIN(0.582390163355051+A11)</f>
+        <f>SIN(A11)+SIN(COS(A11))</f>
       </c>
       <c r="F11">
-        <f>1.68689002995008*COS(0.775844995210273-A11)</f>
-      </c>
-      <c r="G11">
         <f>COS(A11)+SIN(A11)</f>
       </c>
     </row>
@@ -352,18 +315,15 @@
         <v>-0.569681331</v>
       </c>
       <c r="C12">
-        <f>SIN(0.799192046051646+A12)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A12)</f>
       </c>
       <c r="D12">
-        <f>SIN(0.799192046051646+A12)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A12)</f>
       </c>
       <c r="E12">
-        <f>1.57177657234968*SIN(0.582390163355051+A12)</f>
+        <f>SIN(A12)+SIN(COS(A12))</f>
       </c>
       <c r="F12">
-        <f>1.68689002995008*COS(0.775844995210273-A12)</f>
-      </c>
-      <c r="G12">
         <f>COS(A12)+SIN(A12)</f>
       </c>
     </row>
@@ -375,18 +335,15 @@
         <v>1.364994273</v>
       </c>
       <c r="C13">
-        <f>SIN(0.799192046051646+A13)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A13)</f>
       </c>
       <c r="D13">
-        <f>SIN(0.799192046051646+A13)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A13)</f>
       </c>
       <c r="E13">
-        <f>1.57177657234968*SIN(0.582390163355051+A13)</f>
+        <f>SIN(A13)+SIN(COS(A13))</f>
       </c>
       <c r="F13">
-        <f>1.68689002995008*COS(0.775844995210273-A13)</f>
-      </c>
-      <c r="G13">
         <f>COS(A13)+SIN(A13)</f>
       </c>
     </row>
@@ -398,18 +355,15 @@
         <v>-0.90520922</v>
       </c>
       <c r="C14">
-        <f>SIN(0.799192046051646+A14)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A14)</f>
       </c>
       <c r="D14">
-        <f>SIN(0.799192046051646+A14)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A14)</f>
       </c>
       <c r="E14">
-        <f>1.57177657234968*SIN(0.582390163355051+A14)</f>
+        <f>SIN(A14)+SIN(COS(A14))</f>
       </c>
       <c r="F14">
-        <f>1.68689002995008*COS(0.775844995210273-A14)</f>
-      </c>
-      <c r="G14">
         <f>COS(A14)+SIN(A14)</f>
       </c>
     </row>
@@ -421,18 +375,15 @@
         <v>1.049484629</v>
       </c>
       <c r="C15">
-        <f>SIN(0.799192046051646+A15)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A15)</f>
       </c>
       <c r="D15">
-        <f>SIN(0.799192046051646+A15)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A15)</f>
       </c>
       <c r="E15">
-        <f>1.57177657234968*SIN(0.582390163355051+A15)</f>
+        <f>SIN(A15)+SIN(COS(A15))</f>
       </c>
       <c r="F15">
-        <f>1.68689002995008*COS(0.775844995210273-A15)</f>
-      </c>
-      <c r="G15">
         <f>COS(A15)+SIN(A15)</f>
       </c>
     </row>
@@ -444,18 +395,15 @@
         <v>1.085831282</v>
       </c>
       <c r="C16">
-        <f>SIN(0.799192046051646+A16)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A16)</f>
       </c>
       <c r="D16">
-        <f>SIN(0.799192046051646+A16)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A16)</f>
       </c>
       <c r="E16">
-        <f>1.57177657234968*SIN(0.582390163355051+A16)</f>
+        <f>SIN(A16)+SIN(COS(A16))</f>
       </c>
       <c r="F16">
-        <f>1.68689002995008*COS(0.775844995210273-A16)</f>
-      </c>
-      <c r="G16">
         <f>COS(A16)+SIN(A16)</f>
       </c>
     </row>
@@ -467,18 +415,15 @@
         <v>-1.378942949</v>
       </c>
       <c r="C17">
-        <f>SIN(0.799192046051646+A17)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A17)</f>
       </c>
       <c r="D17">
-        <f>SIN(0.799192046051646+A17)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A17)</f>
       </c>
       <c r="E17">
-        <f>1.57177657234968*SIN(0.582390163355051+A17)</f>
+        <f>SIN(A17)+SIN(COS(A17))</f>
       </c>
       <c r="F17">
-        <f>1.68689002995008*COS(0.775844995210273-A17)</f>
-      </c>
-      <c r="G17">
         <f>COS(A17)+SIN(A17)</f>
       </c>
     </row>
@@ -490,18 +435,15 @@
         <v>0.064180647</v>
       </c>
       <c r="C18">
-        <f>SIN(0.799192046051646+A18)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A18)</f>
       </c>
       <c r="D18">
-        <f>SIN(0.799192046051646+A18)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A18)</f>
       </c>
       <c r="E18">
-        <f>1.57177657234968*SIN(0.582390163355051+A18)</f>
+        <f>SIN(A18)+SIN(COS(A18))</f>
       </c>
       <c r="F18">
-        <f>1.68689002995008*COS(0.775844995210273-A18)</f>
-      </c>
-      <c r="G18">
         <f>COS(A18)+SIN(A18)</f>
       </c>
     </row>
@@ -513,18 +455,15 @@
         <v>-0.217770075</v>
       </c>
       <c r="C19">
-        <f>SIN(0.799192046051646+A19)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A19)</f>
       </c>
       <c r="D19">
-        <f>SIN(0.799192046051646+A19)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A19)</f>
       </c>
       <c r="E19">
-        <f>1.57177657234968*SIN(0.582390163355051+A19)</f>
+        <f>SIN(A19)+SIN(COS(A19))</f>
       </c>
       <c r="F19">
-        <f>1.68689002995008*COS(0.775844995210273-A19)</f>
-      </c>
-      <c r="G19">
         <f>COS(A19)+SIN(A19)</f>
       </c>
     </row>
@@ -536,18 +475,15 @@
         <v>1.361227564</v>
       </c>
       <c r="C20">
-        <f>SIN(0.799192046051646+A20)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A20)</f>
       </c>
       <c r="D20">
-        <f>SIN(0.799192046051646+A20)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A20)</f>
       </c>
       <c r="E20">
-        <f>1.57177657234968*SIN(0.582390163355051+A20)</f>
+        <f>SIN(A20)+SIN(COS(A20))</f>
       </c>
       <c r="F20">
-        <f>1.68689002995008*COS(0.775844995210273-A20)</f>
-      </c>
-      <c r="G20">
         <f>COS(A20)+SIN(A20)</f>
       </c>
     </row>
@@ -559,18 +495,15 @@
         <v>-1.287705894</v>
       </c>
       <c r="C21">
-        <f>SIN(0.799192046051646+A21)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A21)</f>
       </c>
       <c r="D21">
-        <f>SIN(0.799192046051646+A21)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A21)</f>
       </c>
       <c r="E21">
-        <f>1.57177657234968*SIN(0.582390163355051+A21)</f>
+        <f>SIN(A21)+SIN(COS(A21))</f>
       </c>
       <c r="F21">
-        <f>1.68689002995008*COS(0.775844995210273-A21)</f>
-      </c>
-      <c r="G21">
         <f>COS(A21)+SIN(A21)</f>
       </c>
     </row>
@@ -582,18 +515,15 @@
         <v>-0.569681331</v>
       </c>
       <c r="C22">
-        <f>SIN(0.799192046051646+A22)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A22)</f>
       </c>
       <c r="D22">
-        <f>SIN(0.799192046051646+A22)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A22)</f>
       </c>
       <c r="E22">
-        <f>1.57177657234968*SIN(0.582390163355051+A22)</f>
+        <f>SIN(A22)+SIN(COS(A22))</f>
       </c>
       <c r="F22">
-        <f>1.68689002995008*COS(0.775844995210273-A22)</f>
-      </c>
-      <c r="G22">
         <f>COS(A22)+SIN(A22)</f>
       </c>
     </row>
@@ -605,18 +535,15 @@
         <v>-0.904343682</v>
       </c>
       <c r="C23">
-        <f>SIN(0.799192046051646+A23)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A23)</f>
       </c>
       <c r="D23">
-        <f>SIN(0.799192046051646+A23)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A23)</f>
       </c>
       <c r="E23">
-        <f>1.57177657234968*SIN(0.582390163355051+A23)</f>
+        <f>SIN(A23)+SIN(COS(A23))</f>
       </c>
       <c r="F23">
-        <f>1.68689002995008*COS(0.775844995210273-A23)</f>
-      </c>
-      <c r="G23">
         <f>COS(A23)+SIN(A23)</f>
       </c>
     </row>
@@ -628,18 +555,15 @@
         <v>0.69703946</v>
       </c>
       <c r="C24">
-        <f>SIN(0.799192046051646+A24)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A24)</f>
       </c>
       <c r="D24">
-        <f>SIN(0.799192046051646+A24)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A24)</f>
       </c>
       <c r="E24">
-        <f>1.57177657234968*SIN(0.582390163355051+A24)</f>
+        <f>SIN(A24)+SIN(COS(A24))</f>
       </c>
       <c r="F24">
-        <f>1.68689002995008*COS(0.775844995210273-A24)</f>
-      </c>
-      <c r="G24">
         <f>COS(A24)+SIN(A24)</f>
       </c>
     </row>
@@ -651,18 +575,15 @@
         <v>1.404936878</v>
       </c>
       <c r="C25">
-        <f>SIN(0.799192046051646+A25)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A25)</f>
       </c>
       <c r="D25">
-        <f>SIN(0.799192046051646+A25)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A25)</f>
       </c>
       <c r="E25">
-        <f>1.57177657234968*SIN(0.582390163355051+A25)</f>
+        <f>SIN(A25)+SIN(COS(A25))</f>
       </c>
       <c r="F25">
-        <f>1.68689002995008*COS(0.775844995210273-A25)</f>
-      </c>
-      <c r="G25">
         <f>COS(A25)+SIN(A25)</f>
       </c>
     </row>
@@ -674,18 +595,15 @@
         <v>0.734597907</v>
       </c>
       <c r="C26">
-        <f>SIN(0.799192046051646+A26)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A26)</f>
       </c>
       <c r="D26">
-        <f>SIN(0.799192046051646+A26)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A26)</f>
       </c>
       <c r="E26">
-        <f>1.57177657234968*SIN(0.582390163355051+A26)</f>
+        <f>SIN(A26)+SIN(COS(A26))</f>
       </c>
       <c r="F26">
-        <f>1.68689002995008*COS(0.775844995210273-A26)</f>
-      </c>
-      <c r="G26">
         <f>COS(A26)+SIN(A26)</f>
       </c>
     </row>
@@ -697,18 +615,15 @@
         <v>1.340000604</v>
       </c>
       <c r="C27">
-        <f>SIN(0.799192046051646+A27)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A27)</f>
       </c>
       <c r="D27">
-        <f>SIN(0.799192046051646+A27)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A27)</f>
       </c>
       <c r="E27">
-        <f>1.57177657234968*SIN(0.582390163355051+A27)</f>
+        <f>SIN(A27)+SIN(COS(A27))</f>
       </c>
       <c r="F27">
-        <f>1.68689002995008*COS(0.775844995210273-A27)</f>
-      </c>
-      <c r="G27">
         <f>COS(A27)+SIN(A27)</f>
       </c>
     </row>
@@ -720,18 +635,15 @@
         <v>-0.947935659</v>
       </c>
       <c r="C28">
-        <f>SIN(0.799192046051646+A28)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A28)</f>
       </c>
       <c r="D28">
-        <f>SIN(0.799192046051646+A28)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A28)</f>
       </c>
       <c r="E28">
-        <f>1.57177657234968*SIN(0.582390163355051+A28)</f>
+        <f>SIN(A28)+SIN(COS(A28))</f>
       </c>
       <c r="F28">
-        <f>1.68689002995008*COS(0.775844995210273-A28)</f>
-      </c>
-      <c r="G28">
         <f>COS(A28)+SIN(A28)</f>
       </c>
     </row>
@@ -743,18 +655,15 @@
         <v>0.721508462</v>
       </c>
       <c r="C29">
-        <f>SIN(0.799192046051646+A29)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A29)</f>
       </c>
       <c r="D29">
-        <f>SIN(0.799192046051646+A29)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A29)</f>
       </c>
       <c r="E29">
-        <f>1.57177657234968*SIN(0.582390163355051+A29)</f>
+        <f>SIN(A29)+SIN(COS(A29))</f>
       </c>
       <c r="F29">
-        <f>1.68689002995008*COS(0.775844995210273-A29)</f>
-      </c>
-      <c r="G29">
         <f>COS(A29)+SIN(A29)</f>
       </c>
     </row>
@@ -766,18 +675,15 @@
         <v>0.233954029</v>
       </c>
       <c r="C30">
-        <f>SIN(0.799192046051646+A30)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A30)</f>
       </c>
       <c r="D30">
-        <f>SIN(0.799192046051646+A30)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A30)</f>
       </c>
       <c r="E30">
-        <f>1.57177657234968*SIN(0.582390163355051+A30)</f>
+        <f>SIN(A30)+SIN(COS(A30))</f>
       </c>
       <c r="F30">
-        <f>1.68689002995008*COS(0.775844995210273-A30)</f>
-      </c>
-      <c r="G30">
         <f>COS(A30)+SIN(A30)</f>
       </c>
     </row>
@@ -789,18 +695,15 @@
         <v>0.384567261</v>
       </c>
       <c r="C31">
-        <f>SIN(0.799192046051646+A31)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A31)</f>
       </c>
       <c r="D31">
-        <f>SIN(0.799192046051646+A31)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A31)</f>
       </c>
       <c r="E31">
-        <f>1.57177657234968*SIN(0.582390163355051+A31)</f>
+        <f>SIN(A31)+SIN(COS(A31))</f>
       </c>
       <c r="F31">
-        <f>1.68689002995008*COS(0.775844995210273-A31)</f>
-      </c>
-      <c r="G31">
         <f>COS(A31)+SIN(A31)</f>
       </c>
     </row>
@@ -812,18 +715,15 @@
         <v>-0.542641387</v>
       </c>
       <c r="C32">
-        <f>SIN(0.799192046051646+A32)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A32)</f>
       </c>
       <c r="D32">
-        <f>SIN(0.799192046051646+A32)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A32)</f>
       </c>
       <c r="E32">
-        <f>1.57177657234968*SIN(0.582390163355051+A32)</f>
+        <f>SIN(A32)+SIN(COS(A32))</f>
       </c>
       <c r="F32">
-        <f>1.68689002995008*COS(0.775844995210273-A32)</f>
-      </c>
-      <c r="G32">
         <f>COS(A32)+SIN(A32)</f>
       </c>
     </row>
@@ -835,18 +735,15 @@
         <v>-0.090173403</v>
       </c>
       <c r="C33">
-        <f>SIN(0.799192046051646+A33)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A33)</f>
       </c>
       <c r="D33">
-        <f>SIN(0.799192046051646+A33)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A33)</f>
       </c>
       <c r="E33">
-        <f>1.57177657234968*SIN(0.582390163355051+A33)</f>
+        <f>SIN(A33)+SIN(COS(A33))</f>
       </c>
       <c r="F33">
-        <f>1.68689002995008*COS(0.775844995210273-A33)</f>
-      </c>
-      <c r="G33">
         <f>COS(A33)+SIN(A33)</f>
       </c>
     </row>
@@ -858,18 +755,15 @@
         <v>-0.188665414</v>
       </c>
       <c r="C34">
-        <f>SIN(0.799192046051646+A34)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A34)</f>
       </c>
       <c r="D34">
-        <f>SIN(0.799192046051646+A34)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A34)</f>
       </c>
       <c r="E34">
-        <f>1.57177657234968*SIN(0.582390163355051+A34)</f>
+        <f>SIN(A34)+SIN(COS(A34))</f>
       </c>
       <c r="F34">
-        <f>1.68689002995008*COS(0.775844995210273-A34)</f>
-      </c>
-      <c r="G34">
         <f>COS(A34)+SIN(A34)</f>
       </c>
     </row>
@@ -881,18 +775,15 @@
         <v>-1.378189178</v>
       </c>
       <c r="C35">
-        <f>SIN(0.799192046051646+A35)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A35)</f>
       </c>
       <c r="D35">
-        <f>SIN(0.799192046051646+A35)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A35)</f>
       </c>
       <c r="E35">
-        <f>1.57177657234968*SIN(0.582390163355051+A35)</f>
+        <f>SIN(A35)+SIN(COS(A35))</f>
       </c>
       <c r="F35">
-        <f>1.68689002995008*COS(0.775844995210273-A35)</f>
-      </c>
-      <c r="G35">
         <f>COS(A35)+SIN(A35)</f>
       </c>
     </row>
@@ -904,18 +795,15 @@
         <v>1.058911354</v>
       </c>
       <c r="C36">
-        <f>SIN(0.799192046051646+A36)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A36)</f>
       </c>
       <c r="D36">
-        <f>SIN(0.799192046051646+A36)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A36)</f>
       </c>
       <c r="E36">
-        <f>1.57177657234968*SIN(0.582390163355051+A36)</f>
+        <f>SIN(A36)+SIN(COS(A36))</f>
       </c>
       <c r="F36">
-        <f>1.68689002995008*COS(0.775844995210273-A36)</f>
-      </c>
-      <c r="G36">
         <f>COS(A36)+SIN(A36)</f>
       </c>
     </row>
@@ -927,18 +815,15 @@
         <v>-0.132466552</v>
       </c>
       <c r="C37">
-        <f>SIN(0.799192046051646+A37)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A37)</f>
       </c>
       <c r="D37">
-        <f>SIN(0.799192046051646+A37)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A37)</f>
       </c>
       <c r="E37">
-        <f>1.57177657234968*SIN(0.582390163355051+A37)</f>
+        <f>SIN(A37)+SIN(COS(A37))</f>
       </c>
       <c r="F37">
-        <f>1.68689002995008*COS(0.775844995210273-A37)</f>
-      </c>
-      <c r="G37">
         <f>COS(A37)+SIN(A37)</f>
       </c>
     </row>
@@ -950,18 +835,15 @@
         <v>1.360921755</v>
       </c>
       <c r="C38">
-        <f>SIN(0.799192046051646+A38)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A38)</f>
       </c>
       <c r="D38">
-        <f>SIN(0.799192046051646+A38)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A38)</f>
       </c>
       <c r="E38">
-        <f>1.57177657234968*SIN(0.582390163355051+A38)</f>
+        <f>SIN(A38)+SIN(COS(A38))</f>
       </c>
       <c r="F38">
-        <f>1.68689002995008*COS(0.775844995210273-A38)</f>
-      </c>
-      <c r="G38">
         <f>COS(A38)+SIN(A38)</f>
       </c>
     </row>
@@ -973,18 +855,15 @@
         <v>-1.263296174</v>
       </c>
       <c r="C39">
-        <f>SIN(0.799192046051646+A39)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A39)</f>
       </c>
       <c r="D39">
-        <f>SIN(0.799192046051646+A39)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A39)</f>
       </c>
       <c r="E39">
-        <f>1.57177657234968*SIN(0.582390163355051+A39)</f>
+        <f>SIN(A39)+SIN(COS(A39))</f>
       </c>
       <c r="F39">
-        <f>1.68689002995008*COS(0.775844995210273-A39)</f>
-      </c>
-      <c r="G39">
         <f>COS(A39)+SIN(A39)</f>
       </c>
     </row>
@@ -996,18 +875,15 @@
         <v>1.305530837</v>
       </c>
       <c r="C40">
-        <f>SIN(0.799192046051646+A40)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A40)</f>
       </c>
       <c r="D40">
-        <f>SIN(0.799192046051646+A40)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A40)</f>
       </c>
       <c r="E40">
-        <f>1.57177657234968*SIN(0.582390163355051+A40)</f>
+        <f>SIN(A40)+SIN(COS(A40))</f>
       </c>
       <c r="F40">
-        <f>1.68689002995008*COS(0.775844995210273-A40)</f>
-      </c>
-      <c r="G40">
         <f>COS(A40)+SIN(A40)</f>
       </c>
     </row>
@@ -1019,18 +895,15 @@
         <v>1.371844673</v>
       </c>
       <c r="C41">
-        <f>SIN(0.799192046051646+A41)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A41)</f>
       </c>
       <c r="D41">
-        <f>SIN(0.799192046051646+A41)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A41)</f>
       </c>
       <c r="E41">
-        <f>1.57177657234968*SIN(0.582390163355051+A41)</f>
+        <f>SIN(A41)+SIN(COS(A41))</f>
       </c>
       <c r="F41">
-        <f>1.68689002995008*COS(0.775844995210273-A41)</f>
-      </c>
-      <c r="G41">
         <f>COS(A41)+SIN(A41)</f>
       </c>
     </row>
@@ -1042,18 +915,15 @@
         <v>1.412105946</v>
       </c>
       <c r="C42">
-        <f>SIN(0.799192046051646+A42)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A42)</f>
       </c>
       <c r="D42">
-        <f>SIN(0.799192046051646+A42)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A42)</f>
       </c>
       <c r="E42">
-        <f>1.57177657234968*SIN(0.582390163355051+A42)</f>
+        <f>SIN(A42)+SIN(COS(A42))</f>
       </c>
       <c r="F42">
-        <f>1.68689002995008*COS(0.775844995210273-A42)</f>
-      </c>
-      <c r="G42">
         <f>COS(A42)+SIN(A42)</f>
       </c>
     </row>
@@ -1065,18 +935,15 @@
         <v>-1.413287325</v>
       </c>
       <c r="C43">
-        <f>SIN(0.799192046051646+A43)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A43)</f>
       </c>
       <c r="D43">
-        <f>SIN(0.799192046051646+A43)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A43)</f>
       </c>
       <c r="E43">
-        <f>1.57177657234968*SIN(0.582390163355051+A43)</f>
+        <f>SIN(A43)+SIN(COS(A43))</f>
       </c>
       <c r="F43">
-        <f>1.68689002995008*COS(0.775844995210273-A43)</f>
-      </c>
-      <c r="G43">
         <f>COS(A43)+SIN(A43)</f>
       </c>
     </row>
@@ -1088,18 +955,15 @@
         <v>-0.245671582</v>
       </c>
       <c r="C44">
-        <f>SIN(0.799192046051646+A44)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A44)</f>
       </c>
       <c r="D44">
-        <f>SIN(0.799192046051646+A44)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A44)</f>
       </c>
       <c r="E44">
-        <f>1.57177657234968*SIN(0.582390163355051+A44)</f>
+        <f>SIN(A44)+SIN(COS(A44))</f>
       </c>
       <c r="F44">
-        <f>1.68689002995008*COS(0.775844995210273-A44)</f>
-      </c>
-      <c r="G44">
         <f>COS(A44)+SIN(A44)</f>
       </c>
     </row>
@@ -1111,18 +975,15 @@
         <v>0.91774414</v>
       </c>
       <c r="C45">
-        <f>SIN(0.799192046051646+A45)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A45)</f>
       </c>
       <c r="D45">
-        <f>SIN(0.799192046051646+A45)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A45)</f>
       </c>
       <c r="E45">
-        <f>1.57177657234968*SIN(0.582390163355051+A45)</f>
+        <f>SIN(A45)+SIN(COS(A45))</f>
       </c>
       <c r="F45">
-        <f>1.68689002995008*COS(0.775844995210273-A45)</f>
-      </c>
-      <c r="G45">
         <f>COS(A45)+SIN(A45)</f>
       </c>
     </row>
@@ -1134,18 +995,15 @@
         <v>-0.203785959</v>
       </c>
       <c r="C46">
-        <f>SIN(0.799192046051646+A46)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A46)</f>
       </c>
       <c r="D46">
-        <f>SIN(0.799192046051646+A46)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A46)</f>
       </c>
       <c r="E46">
-        <f>1.57177657234968*SIN(0.582390163355051+A46)</f>
+        <f>SIN(A46)+SIN(COS(A46))</f>
       </c>
       <c r="F46">
-        <f>1.68689002995008*COS(0.775844995210273-A46)</f>
-      </c>
-      <c r="G46">
         <f>COS(A46)+SIN(A46)</f>
       </c>
     </row>
@@ -1157,18 +1015,15 @@
         <v>0.558778884</v>
       </c>
       <c r="C47">
-        <f>SIN(0.799192046051646+A47)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A47)</f>
       </c>
       <c r="D47">
-        <f>SIN(0.799192046051646+A47)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A47)</f>
       </c>
       <c r="E47">
-        <f>1.57177657234968*SIN(0.582390163355051+A47)</f>
+        <f>SIN(A47)+SIN(COS(A47))</f>
       </c>
       <c r="F47">
-        <f>1.68689002995008*COS(0.775844995210273-A47)</f>
-      </c>
-      <c r="G47">
         <f>COS(A47)+SIN(A47)</f>
       </c>
     </row>
@@ -1180,18 +1035,15 @@
         <v>1.276241758</v>
       </c>
       <c r="C48">
-        <f>SIN(0.799192046051646+A48)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A48)</f>
       </c>
       <c r="D48">
-        <f>SIN(0.799192046051646+A48)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A48)</f>
       </c>
       <c r="E48">
-        <f>1.57177657234968*SIN(0.582390163355051+A48)</f>
+        <f>SIN(A48)+SIN(COS(A48))</f>
       </c>
       <c r="F48">
-        <f>1.68689002995008*COS(0.775844995210273-A48)</f>
-      </c>
-      <c r="G48">
         <f>COS(A48)+SIN(A48)</f>
       </c>
     </row>
@@ -1203,18 +1055,15 @@
         <v>-1.339640157</v>
       </c>
       <c r="C49">
-        <f>SIN(0.799192046051646+A49)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A49)</f>
       </c>
       <c r="D49">
-        <f>SIN(0.799192046051646+A49)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A49)</f>
       </c>
       <c r="E49">
-        <f>1.57177657234968*SIN(0.582390163355051+A49)</f>
+        <f>SIN(A49)+SIN(COS(A49))</f>
       </c>
       <c r="F49">
-        <f>1.68689002995008*COS(0.775844995210273-A49)</f>
-      </c>
-      <c r="G49">
         <f>COS(A49)+SIN(A49)</f>
       </c>
     </row>
@@ -1226,18 +1075,15 @@
         <v>-1.381291881</v>
       </c>
       <c r="C50">
-        <f>SIN(0.799192046051646+A50)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A50)</f>
       </c>
       <c r="D50">
-        <f>SIN(0.799192046051646+A50)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A50)</f>
       </c>
       <c r="E50">
-        <f>1.57177657234968*SIN(0.582390163355051+A50)</f>
+        <f>SIN(A50)+SIN(COS(A50))</f>
       </c>
       <c r="F50">
-        <f>1.68689002995008*COS(0.775844995210273-A50)</f>
-      </c>
-      <c r="G50">
         <f>COS(A50)+SIN(A50)</f>
       </c>
     </row>
@@ -1249,18 +1095,15 @@
         <v>-0.802961045</v>
       </c>
       <c r="C51">
-        <f>SIN(0.799192046051646+A51)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A51)</f>
       </c>
       <c r="D51">
-        <f>SIN(0.799192046051646+A51)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A51)</f>
       </c>
       <c r="E51">
-        <f>1.57177657234968*SIN(0.582390163355051+A51)</f>
+        <f>SIN(A51)+SIN(COS(A51))</f>
       </c>
       <c r="F51">
-        <f>1.68689002995008*COS(0.775844995210273-A51)</f>
-      </c>
-      <c r="G51">
         <f>COS(A51)+SIN(A51)</f>
       </c>
     </row>
@@ -1272,18 +1115,15 @@
         <v>-1.413812862</v>
       </c>
       <c r="C52">
-        <f>SIN(0.799192046051646+A52)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A52)</f>
       </c>
       <c r="D52">
-        <f>SIN(0.799192046051646+A52)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A52)</f>
       </c>
       <c r="E52">
-        <f>1.57177657234968*SIN(0.582390163355051+A52)</f>
+        <f>SIN(A52)+SIN(COS(A52))</f>
       </c>
       <c r="F52">
-        <f>1.68689002995008*COS(0.775844995210273-A52)</f>
-      </c>
-      <c r="G52">
         <f>COS(A52)+SIN(A52)</f>
       </c>
     </row>
@@ -1295,18 +1135,15 @@
         <v>1.30002884</v>
       </c>
       <c r="C53">
-        <f>SIN(0.799192046051646+A53)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A53)</f>
       </c>
       <c r="D53">
-        <f>SIN(0.799192046051646+A53)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A53)</f>
       </c>
       <c r="E53">
-        <f>1.57177657234968*SIN(0.582390163355051+A53)</f>
+        <f>SIN(A53)+SIN(COS(A53))</f>
       </c>
       <c r="F53">
-        <f>1.68689002995008*COS(0.775844995210273-A53)</f>
-      </c>
-      <c r="G53">
         <f>COS(A53)+SIN(A53)</f>
       </c>
     </row>
@@ -1318,18 +1155,15 @@
         <v>-1.378942949</v>
       </c>
       <c r="C54">
-        <f>SIN(0.799192046051646+A54)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A54)</f>
       </c>
       <c r="D54">
-        <f>SIN(0.799192046051646+A54)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A54)</f>
       </c>
       <c r="E54">
-        <f>1.57177657234968*SIN(0.582390163355051+A54)</f>
+        <f>SIN(A54)+SIN(COS(A54))</f>
       </c>
       <c r="F54">
-        <f>1.68689002995008*COS(0.775844995210273-A54)</f>
-      </c>
-      <c r="G54">
         <f>COS(A54)+SIN(A54)</f>
       </c>
     </row>
@@ -1341,18 +1175,15 @@
         <v>-1.414203322</v>
       </c>
       <c r="C55">
-        <f>SIN(0.799192046051646+A55)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A55)</f>
       </c>
       <c r="D55">
-        <f>SIN(0.799192046051646+A55)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A55)</f>
       </c>
       <c r="E55">
-        <f>1.57177657234968*SIN(0.582390163355051+A55)</f>
+        <f>SIN(A55)+SIN(COS(A55))</f>
       </c>
       <c r="F55">
-        <f>1.68689002995008*COS(0.775844995210273-A55)</f>
-      </c>
-      <c r="G55">
         <f>COS(A55)+SIN(A55)</f>
       </c>
     </row>
@@ -1364,18 +1195,15 @@
         <v>-0.423067079</v>
       </c>
       <c r="C56">
-        <f>SIN(0.799192046051646+A56)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A56)</f>
       </c>
       <c r="D56">
-        <f>SIN(0.799192046051646+A56)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A56)</f>
       </c>
       <c r="E56">
-        <f>1.57177657234968*SIN(0.582390163355051+A56)</f>
+        <f>SIN(A56)+SIN(COS(A56))</f>
       </c>
       <c r="F56">
-        <f>1.68689002995008*COS(0.775844995210273-A56)</f>
-      </c>
-      <c r="G56">
         <f>COS(A56)+SIN(A56)</f>
       </c>
     </row>
@@ -1387,18 +1215,15 @@
         <v>-0.568650388</v>
       </c>
       <c r="C57">
-        <f>SIN(0.799192046051646+A57)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A57)</f>
       </c>
       <c r="D57">
-        <f>SIN(0.799192046051646+A57)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A57)</f>
       </c>
       <c r="E57">
-        <f>1.57177657234968*SIN(0.582390163355051+A57)</f>
+        <f>SIN(A57)+SIN(COS(A57))</f>
       </c>
       <c r="F57">
-        <f>1.68689002995008*COS(0.775844995210273-A57)</f>
-      </c>
-      <c r="G57">
         <f>COS(A57)+SIN(A57)</f>
       </c>
     </row>
@@ -1410,18 +1235,15 @@
         <v>0.247889377</v>
       </c>
       <c r="C58">
-        <f>SIN(0.799192046051646+A58)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A58)</f>
       </c>
       <c r="D58">
-        <f>SIN(0.799192046051646+A58)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A58)</f>
       </c>
       <c r="E58">
-        <f>1.57177657234968*SIN(0.582390163355051+A58)</f>
+        <f>SIN(A58)+SIN(COS(A58))</f>
       </c>
       <c r="F58">
-        <f>1.68689002995008*COS(0.775844995210273-A58)</f>
-      </c>
-      <c r="G58">
         <f>COS(A58)+SIN(A58)</f>
       </c>
     </row>
@@ -1433,18 +1255,15 @@
         <v>-1.368907689</v>
       </c>
       <c r="C59">
-        <f>SIN(0.799192046051646+A59)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A59)</f>
       </c>
       <c r="D59">
-        <f>SIN(0.799192046051646+A59)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A59)</f>
       </c>
       <c r="E59">
-        <f>1.57177657234968*SIN(0.582390163355051+A59)</f>
+        <f>SIN(A59)+SIN(COS(A59))</f>
       </c>
       <c r="F59">
-        <f>1.68689002995008*COS(0.775844995210273-A59)</f>
-      </c>
-      <c r="G59">
         <f>COS(A59)+SIN(A59)</f>
       </c>
     </row>
@@ -1456,18 +1275,15 @@
         <v>-1.217463951</v>
       </c>
       <c r="C60">
-        <f>SIN(0.799192046051646+A60)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A60)</f>
       </c>
       <c r="D60">
-        <f>SIN(0.799192046051646+A60)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A60)</f>
       </c>
       <c r="E60">
-        <f>1.57177657234968*SIN(0.582390163355051+A60)</f>
+        <f>SIN(A60)+SIN(COS(A60))</f>
       </c>
       <c r="F60">
-        <f>1.68689002995008*COS(0.775844995210273-A60)</f>
-      </c>
-      <c r="G60">
         <f>COS(A60)+SIN(A60)</f>
       </c>
     </row>
@@ -1479,18 +1295,15 @@
         <v>-0.707359963</v>
       </c>
       <c r="C61">
-        <f>SIN(0.799192046051646+A61)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A61)</f>
       </c>
       <c r="D61">
-        <f>SIN(0.799192046051646+A61)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A61)</f>
       </c>
       <c r="E61">
-        <f>1.57177657234968*SIN(0.582390163355051+A61)</f>
+        <f>SIN(A61)+SIN(COS(A61))</f>
       </c>
       <c r="F61">
-        <f>1.68689002995008*COS(0.775844995210273-A61)</f>
-      </c>
-      <c r="G61">
         <f>COS(A61)+SIN(A61)</f>
       </c>
     </row>
@@ -1502,18 +1315,15 @@
         <v>-0.033662895</v>
       </c>
       <c r="C62">
-        <f>SIN(0.799192046051646+A62)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A62)</f>
       </c>
       <c r="D62">
-        <f>SIN(0.799192046051646+A62)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A62)</f>
       </c>
       <c r="E62">
-        <f>1.57177657234968*SIN(0.582390163355051+A62)</f>
+        <f>SIN(A62)+SIN(COS(A62))</f>
       </c>
       <c r="F62">
-        <f>1.68689002995008*COS(0.775844995210273-A62)</f>
-      </c>
-      <c r="G62">
         <f>COS(A62)+SIN(A62)</f>
       </c>
     </row>
@@ -1525,18 +1335,15 @@
         <v>-1.19533226</v>
       </c>
       <c r="C63">
-        <f>SIN(0.799192046051646+A63)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A63)</f>
       </c>
       <c r="D63">
-        <f>SIN(0.799192046051646+A63)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A63)</f>
       </c>
       <c r="E63">
-        <f>1.57177657234968*SIN(0.582390163355051+A63)</f>
+        <f>SIN(A63)+SIN(COS(A63))</f>
       </c>
       <c r="F63">
-        <f>1.68689002995008*COS(0.775844995210273-A63)</f>
-      </c>
-      <c r="G63">
         <f>COS(A63)+SIN(A63)</f>
       </c>
     </row>
@@ -1548,18 +1355,15 @@
         <v>-1.413812862</v>
       </c>
       <c r="C64">
-        <f>SIN(0.799192046051646+A64)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A64)</f>
       </c>
       <c r="D64">
-        <f>SIN(0.799192046051646+A64)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A64)</f>
       </c>
       <c r="E64">
-        <f>1.57177657234968*SIN(0.582390163355051+A64)</f>
+        <f>SIN(A64)+SIN(COS(A64))</f>
       </c>
       <c r="F64">
-        <f>1.68689002995008*COS(0.775844995210273-A64)</f>
-      </c>
-      <c r="G64">
         <f>COS(A64)+SIN(A64)</f>
       </c>
     </row>
@@ -1571,18 +1375,15 @@
         <v>0.621999315</v>
       </c>
       <c r="C65">
-        <f>SIN(0.799192046051646+A65)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A65)</f>
       </c>
       <c r="D65">
-        <f>SIN(0.799192046051646+A65)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A65)</f>
       </c>
       <c r="E65">
-        <f>1.57177657234968*SIN(0.582390163355051+A65)</f>
+        <f>SIN(A65)+SIN(COS(A65))</f>
       </c>
       <c r="F65">
-        <f>1.68689002995008*COS(0.775844995210273-A65)</f>
-      </c>
-      <c r="G65">
         <f>COS(A65)+SIN(A65)</f>
       </c>
     </row>
@@ -1594,18 +1395,15 @@
         <v>0.948771091</v>
       </c>
       <c r="C66">
-        <f>SIN(0.799192046051646+A66)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A66)</f>
       </c>
       <c r="D66">
-        <f>SIN(0.799192046051646+A66)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A66)</f>
       </c>
       <c r="E66">
-        <f>1.57177657234968*SIN(0.582390163355051+A66)</f>
+        <f>SIN(A66)+SIN(COS(A66))</f>
       </c>
       <c r="F66">
-        <f>1.68689002995008*COS(0.775844995210273-A66)</f>
-      </c>
-      <c r="G66">
         <f>COS(A66)+SIN(A66)</f>
       </c>
     </row>
@@ -1617,18 +1415,15 @@
         <v>-0.802961045</v>
       </c>
       <c r="C67">
-        <f>SIN(0.799192046051646+A67)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A67)</f>
       </c>
       <c r="D67">
-        <f>SIN(0.799192046051646+A67)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A67)</f>
       </c>
       <c r="E67">
-        <f>1.57177657234968*SIN(0.582390163355051+A67)</f>
+        <f>SIN(A67)+SIN(COS(A67))</f>
       </c>
       <c r="F67">
-        <f>1.68689002995008*COS(0.775844995210273-A67)</f>
-      </c>
-      <c r="G67">
         <f>COS(A67)+SIN(A67)</f>
       </c>
     </row>
@@ -1640,18 +1435,15 @@
         <v>-1.413287325</v>
       </c>
       <c r="C68">
-        <f>SIN(0.799192046051646+A68)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A68)</f>
       </c>
       <c r="D68">
-        <f>SIN(0.799192046051646+A68)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A68)</f>
       </c>
       <c r="E68">
-        <f>1.57177657234968*SIN(0.582390163355051+A68)</f>
+        <f>SIN(A68)+SIN(COS(A68))</f>
       </c>
       <c r="F68">
-        <f>1.68689002995008*COS(0.775844995210273-A68)</f>
-      </c>
-      <c r="G68">
         <f>COS(A68)+SIN(A68)</f>
       </c>
     </row>
@@ -1663,18 +1455,15 @@
         <v>0.274579656</v>
       </c>
       <c r="C69">
-        <f>SIN(0.799192046051646+A69)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A69)</f>
       </c>
       <c r="D69">
-        <f>SIN(0.799192046051646+A69)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A69)</f>
       </c>
       <c r="E69">
-        <f>1.57177657234968*SIN(0.582390163355051+A69)</f>
+        <f>SIN(A69)+SIN(COS(A69))</f>
       </c>
       <c r="F69">
-        <f>1.68689002995008*COS(0.775844995210273-A69)</f>
-      </c>
-      <c r="G69">
         <f>COS(A69)+SIN(A69)</f>
       </c>
     </row>
@@ -1686,18 +1475,15 @@
         <v>0.609267573</v>
       </c>
       <c r="C70">
-        <f>SIN(0.799192046051646+A70)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A70)</f>
       </c>
       <c r="D70">
-        <f>SIN(0.799192046051646+A70)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A70)</f>
       </c>
       <c r="E70">
-        <f>1.57177657234968*SIN(0.582390163355051+A70)</f>
+        <f>SIN(A70)+SIN(COS(A70))</f>
       </c>
       <c r="F70">
-        <f>1.68689002995008*COS(0.775844995210273-A70)</f>
-      </c>
-      <c r="G70">
         <f>COS(A70)+SIN(A70)</f>
       </c>
     </row>
@@ -1709,18 +1495,15 @@
         <v>1.22347053</v>
       </c>
       <c r="C71">
-        <f>SIN(0.799192046051646+A71)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A71)</f>
       </c>
       <c r="D71">
-        <f>SIN(0.799192046051646+A71)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A71)</f>
       </c>
       <c r="E71">
-        <f>1.57177657234968*SIN(0.582390163355051+A71)</f>
+        <f>SIN(A71)+SIN(COS(A71))</f>
       </c>
       <c r="F71">
-        <f>1.68689002995008*COS(0.775844995210273-A71)</f>
-      </c>
-      <c r="G71">
         <f>COS(A71)+SIN(A71)</f>
       </c>
     </row>
@@ -1732,18 +1515,15 @@
         <v>1.17086313</v>
       </c>
       <c r="C72">
-        <f>SIN(0.799192046051646+A72)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A72)</f>
       </c>
       <c r="D72">
-        <f>SIN(0.799192046051646+A72)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A72)</f>
       </c>
       <c r="E72">
-        <f>1.57177657234968*SIN(0.582390163355051+A72)</f>
+        <f>SIN(A72)+SIN(COS(A72))</f>
       </c>
       <c r="F72">
-        <f>1.68689002995008*COS(0.775844995210273-A72)</f>
-      </c>
-      <c r="G72">
         <f>COS(A72)+SIN(A72)</f>
       </c>
     </row>
@@ -1755,18 +1535,15 @@
         <v>0.698019121</v>
       </c>
       <c r="C73">
-        <f>SIN(0.799192046051646+A73)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A73)</f>
       </c>
       <c r="D73">
-        <f>SIN(0.799192046051646+A73)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A73)</f>
       </c>
       <c r="E73">
-        <f>1.57177657234968*SIN(0.582390163355051+A73)</f>
+        <f>SIN(A73)+SIN(COS(A73))</f>
       </c>
       <c r="F73">
-        <f>1.68689002995008*COS(0.775844995210273-A73)</f>
-      </c>
-      <c r="G73">
         <f>COS(A73)+SIN(A73)</f>
       </c>
     </row>
@@ -1778,18 +1555,15 @@
         <v>1.14654549</v>
       </c>
       <c r="C74">
-        <f>SIN(0.799192046051646+A74)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A74)</f>
       </c>
       <c r="D74">
-        <f>SIN(0.799192046051646+A74)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A74)</f>
       </c>
       <c r="E74">
-        <f>1.57177657234968*SIN(0.582390163355051+A74)</f>
+        <f>SIN(A74)+SIN(COS(A74))</f>
       </c>
       <c r="F74">
-        <f>1.68689002995008*COS(0.775844995210273-A74)</f>
-      </c>
-      <c r="G74">
         <f>COS(A74)+SIN(A74)</f>
       </c>
     </row>
@@ -1801,18 +1575,15 @@
         <v>1.353286171</v>
       </c>
       <c r="C75">
-        <f>SIN(0.799192046051646+A75)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A75)</f>
       </c>
       <c r="D75">
-        <f>SIN(0.799192046051646+A75)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A75)</f>
       </c>
       <c r="E75">
-        <f>1.57177657234968*SIN(0.582390163355051+A75)</f>
+        <f>SIN(A75)+SIN(COS(A75))</f>
       </c>
       <c r="F75">
-        <f>1.68689002995008*COS(0.775844995210273-A75)</f>
-      </c>
-      <c r="G75">
         <f>COS(A75)+SIN(A75)</f>
       </c>
     </row>
@@ -1824,18 +1595,15 @@
         <v>-0.091297259</v>
       </c>
       <c r="C76">
-        <f>SIN(0.799192046051646+A76)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A76)</f>
       </c>
       <c r="D76">
-        <f>SIN(0.799192046051646+A76)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A76)</f>
       </c>
       <c r="E76">
-        <f>1.57177657234968*SIN(0.582390163355051+A76)</f>
+        <f>SIN(A76)+SIN(COS(A76))</f>
       </c>
       <c r="F76">
-        <f>1.68689002995008*COS(0.775844995210273-A76)</f>
-      </c>
-      <c r="G76">
         <f>COS(A76)+SIN(A76)</f>
       </c>
     </row>
@@ -1847,18 +1615,15 @@
         <v>-1.05965749</v>
       </c>
       <c r="C77">
-        <f>SIN(0.799192046051646+A77)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A77)</f>
       </c>
       <c r="D77">
-        <f>SIN(0.799192046051646+A77)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A77)</f>
       </c>
       <c r="E77">
-        <f>1.57177657234968*SIN(0.582390163355051+A77)</f>
+        <f>SIN(A77)+SIN(COS(A77))</f>
       </c>
       <c r="F77">
-        <f>1.68689002995008*COS(0.775844995210273-A77)</f>
-      </c>
-      <c r="G77">
         <f>COS(A77)+SIN(A77)</f>
       </c>
     </row>
@@ -1870,18 +1635,15 @@
         <v>-0.926757785</v>
       </c>
       <c r="C78">
-        <f>SIN(0.799192046051646+A78)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A78)</f>
       </c>
       <c r="D78">
-        <f>SIN(0.799192046051646+A78)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A78)</f>
       </c>
       <c r="E78">
-        <f>1.57177657234968*SIN(0.582390163355051+A78)</f>
+        <f>SIN(A78)+SIN(COS(A78))</f>
       </c>
       <c r="F78">
-        <f>1.68689002995008*COS(0.775844995210273-A78)</f>
-      </c>
-      <c r="G78">
         <f>COS(A78)+SIN(A78)</f>
       </c>
     </row>
@@ -1893,18 +1655,15 @@
         <v>1.411263551</v>
       </c>
       <c r="C79">
-        <f>SIN(0.799192046051646+A79)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A79)</f>
       </c>
       <c r="D79">
-        <f>SIN(0.799192046051646+A79)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A79)</f>
       </c>
       <c r="E79">
-        <f>1.57177657234968*SIN(0.582390163355051+A79)</f>
+        <f>SIN(A79)+SIN(COS(A79))</f>
       </c>
       <c r="F79">
-        <f>1.68689002995008*COS(0.775844995210273-A79)</f>
-      </c>
-      <c r="G79">
         <f>COS(A79)+SIN(A79)</f>
       </c>
     </row>
@@ -1916,18 +1675,15 @@
         <v>0.438682003</v>
       </c>
       <c r="C80">
-        <f>SIN(0.799192046051646+A80)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A80)</f>
       </c>
       <c r="D80">
-        <f>SIN(0.799192046051646+A80)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A80)</f>
       </c>
       <c r="E80">
-        <f>1.57177657234968*SIN(0.582390163355051+A80)</f>
+        <f>SIN(A80)+SIN(COS(A80))</f>
       </c>
       <c r="F80">
-        <f>1.68689002995008*COS(0.775844995210273-A80)</f>
-      </c>
-      <c r="G80">
         <f>COS(A80)+SIN(A80)</f>
       </c>
     </row>
@@ -1939,18 +1695,15 @@
         <v>-0.767680371</v>
       </c>
       <c r="C81">
-        <f>SIN(0.799192046051646+A81)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A81)</f>
       </c>
       <c r="D81">
-        <f>SIN(0.799192046051646+A81)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A81)</f>
       </c>
       <c r="E81">
-        <f>1.57177657234968*SIN(0.582390163355051+A81)</f>
+        <f>SIN(A81)+SIN(COS(A81))</f>
       </c>
       <c r="F81">
-        <f>1.68689002995008*COS(0.775844995210273-A81)</f>
-      </c>
-      <c r="G81">
         <f>COS(A81)+SIN(A81)</f>
       </c>
     </row>
@@ -1962,18 +1715,15 @@
         <v>-0.543681188</v>
       </c>
       <c r="C82">
-        <f>SIN(0.799192046051646+A82)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A82)</f>
       </c>
       <c r="D82">
-        <f>SIN(0.799192046051646+A82)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A82)</f>
       </c>
       <c r="E82">
-        <f>1.57177657234968*SIN(0.582390163355051+A82)</f>
+        <f>SIN(A82)+SIN(COS(A82))</f>
       </c>
       <c r="F82">
-        <f>1.68689002995008*COS(0.775844995210273-A82)</f>
-      </c>
-      <c r="G82">
         <f>COS(A82)+SIN(A82)</f>
       </c>
     </row>
@@ -1985,18 +1735,15 @@
         <v>-0.504276499</v>
       </c>
       <c r="C83">
-        <f>SIN(0.799192046051646+A83)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A83)</f>
       </c>
       <c r="D83">
-        <f>SIN(0.799192046051646+A83)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A83)</f>
       </c>
       <c r="E83">
-        <f>1.57177657234968*SIN(0.582390163355051+A83)</f>
+        <f>SIN(A83)+SIN(COS(A83))</f>
       </c>
       <c r="F83">
-        <f>1.68689002995008*COS(0.775844995210273-A83)</f>
-      </c>
-      <c r="G83">
         <f>COS(A83)+SIN(A83)</f>
       </c>
     </row>
@@ -2008,18 +1755,15 @@
         <v>-0.160598101</v>
       </c>
       <c r="C84">
-        <f>SIN(0.799192046051646+A84)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A84)</f>
       </c>
       <c r="D84">
-        <f>SIN(0.799192046051646+A84)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A84)</f>
       </c>
       <c r="E84">
-        <f>1.57177657234968*SIN(0.582390163355051+A84)</f>
+        <f>SIN(A84)+SIN(COS(A84))</f>
       </c>
       <c r="F84">
-        <f>1.68689002995008*COS(0.775844995210273-A84)</f>
-      </c>
-      <c r="G84">
         <f>COS(A84)+SIN(A84)</f>
       </c>
     </row>
@@ -2031,18 +1775,15 @@
         <v>-1.2229053</v>
       </c>
       <c r="C85">
-        <f>SIN(0.799192046051646+A85)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A85)</f>
       </c>
       <c r="D85">
-        <f>SIN(0.799192046051646+A85)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A85)</f>
       </c>
       <c r="E85">
-        <f>1.57177657234968*SIN(0.582390163355051+A85)</f>
+        <f>SIN(A85)+SIN(COS(A85))</f>
       </c>
       <c r="F85">
-        <f>1.68689002995008*COS(0.775844995210273-A85)</f>
-      </c>
-      <c r="G85">
         <f>COS(A85)+SIN(A85)</f>
       </c>
     </row>
@@ -2054,18 +1795,15 @@
         <v>-0.423067079</v>
       </c>
       <c r="C86">
-        <f>SIN(0.799192046051646+A86)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A86)</f>
       </c>
       <c r="D86">
-        <f>SIN(0.799192046051646+A86)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A86)</f>
       </c>
       <c r="E86">
-        <f>1.57177657234968*SIN(0.582390163355051+A86)</f>
+        <f>SIN(A86)+SIN(COS(A86))</f>
       </c>
       <c r="F86">
-        <f>1.68689002995008*COS(0.775844995210273-A86)</f>
-      </c>
-      <c r="G86">
         <f>COS(A86)+SIN(A86)</f>
       </c>
     </row>
@@ -2077,18 +1815,15 @@
         <v>1.395098594</v>
       </c>
       <c r="C87">
-        <f>SIN(0.799192046051646+A87)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A87)</f>
       </c>
       <c r="D87">
-        <f>SIN(0.799192046051646+A87)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A87)</f>
       </c>
       <c r="E87">
-        <f>1.57177657234968*SIN(0.582390163355051+A87)</f>
+        <f>SIN(A87)+SIN(COS(A87))</f>
       </c>
       <c r="F87">
-        <f>1.68689002995008*COS(0.775844995210273-A87)</f>
-      </c>
-      <c r="G87">
         <f>COS(A87)+SIN(A87)</f>
       </c>
     </row>
@@ -2100,18 +1835,15 @@
         <v>-1.264811183</v>
       </c>
       <c r="C88">
-        <f>SIN(0.799192046051646+A88)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A88)</f>
       </c>
       <c r="D88">
-        <f>SIN(0.799192046051646+A88)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A88)</f>
       </c>
       <c r="E88">
-        <f>1.57177657234968*SIN(0.582390163355051+A88)</f>
+        <f>SIN(A88)+SIN(COS(A88))</f>
       </c>
       <c r="F88">
-        <f>1.68689002995008*COS(0.775844995210273-A88)</f>
-      </c>
-      <c r="G88">
         <f>COS(A88)+SIN(A88)</f>
       </c>
     </row>
@@ -2123,18 +1855,15 @@
         <v>-0.449969661</v>
       </c>
       <c r="C89">
-        <f>SIN(0.799192046051646+A89)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A89)</f>
       </c>
       <c r="D89">
-        <f>SIN(0.799192046051646+A89)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A89)</f>
       </c>
       <c r="E89">
-        <f>1.57177657234968*SIN(0.582390163355051+A89)</f>
+        <f>SIN(A89)+SIN(COS(A89))</f>
       </c>
       <c r="F89">
-        <f>1.68689002995008*COS(0.775844995210273-A89)</f>
-      </c>
-      <c r="G89">
         <f>COS(A89)+SIN(A89)</f>
       </c>
     </row>
@@ -2146,18 +1875,15 @@
         <v>-1.31005556</v>
       </c>
       <c r="C90">
-        <f>SIN(0.799192046051646+A90)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A90)</f>
       </c>
       <c r="D90">
-        <f>SIN(0.799192046051646+A90)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A90)</f>
       </c>
       <c r="E90">
-        <f>1.57177657234968*SIN(0.582390163355051+A90)</f>
+        <f>SIN(A90)+SIN(COS(A90))</f>
       </c>
       <c r="F90">
-        <f>1.68689002995008*COS(0.775844995210273-A90)</f>
-      </c>
-      <c r="G90">
         <f>COS(A90)+SIN(A90)</f>
       </c>
     </row>
@@ -2169,18 +1895,15 @@
         <v>-0.314971123</v>
       </c>
       <c r="C91">
-        <f>SIN(0.799192046051646+A91)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A91)</f>
       </c>
       <c r="D91">
-        <f>SIN(0.799192046051646+A91)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A91)</f>
       </c>
       <c r="E91">
-        <f>1.57177657234968*SIN(0.582390163355051+A91)</f>
+        <f>SIN(A91)+SIN(COS(A91))</f>
       </c>
       <c r="F91">
-        <f>1.68689002995008*COS(0.775844995210273-A91)</f>
-      </c>
-      <c r="G91">
         <f>COS(A91)+SIN(A91)</f>
       </c>
     </row>
@@ -2192,18 +1915,15 @@
         <v>0.851572269</v>
       </c>
       <c r="C92">
-        <f>SIN(0.799192046051646+A92)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A92)</f>
       </c>
       <c r="D92">
-        <f>SIN(0.799192046051646+A92)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A92)</f>
       </c>
       <c r="E92">
-        <f>1.57177657234968*SIN(0.582390163355051+A92)</f>
+        <f>SIN(A92)+SIN(COS(A92))</f>
       </c>
       <c r="F92">
-        <f>1.68689002995008*COS(0.775844995210273-A92)</f>
-      </c>
-      <c r="G92">
         <f>COS(A92)+SIN(A92)</f>
       </c>
     </row>
@@ -2215,18 +1935,15 @@
         <v>0.192013201</v>
       </c>
       <c r="C93">
-        <f>SIN(0.799192046051646+A93)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A93)</f>
       </c>
       <c r="D93">
-        <f>SIN(0.799192046051646+A93)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A93)</f>
       </c>
       <c r="E93">
-        <f>1.57177657234968*SIN(0.582390163355051+A93)</f>
+        <f>SIN(A93)+SIN(COS(A93))</f>
       </c>
       <c r="F93">
-        <f>1.68689002995008*COS(0.775844995210273-A93)</f>
-      </c>
-      <c r="G93">
         <f>COS(A93)+SIN(A93)</f>
       </c>
     </row>
@@ -2238,18 +1955,15 @@
         <v>-1.185877608</v>
       </c>
       <c r="C94">
-        <f>SIN(0.799192046051646+A94)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A94)</f>
       </c>
       <c r="D94">
-        <f>SIN(0.799192046051646+A94)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A94)</f>
       </c>
       <c r="E94">
-        <f>1.57177657234968*SIN(0.582390163355051+A94)</f>
+        <f>SIN(A94)+SIN(COS(A94))</f>
       </c>
       <c r="F94">
-        <f>1.68689002995008*COS(0.775844995210273-A94)</f>
-      </c>
-      <c r="G94">
         <f>COS(A94)+SIN(A94)</f>
       </c>
     </row>
@@ -2261,18 +1975,15 @@
         <v>0.906074184</v>
       </c>
       <c r="C95">
-        <f>SIN(0.799192046051646+A95)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A95)</f>
       </c>
       <c r="D95">
-        <f>SIN(0.799192046051646+A95)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A95)</f>
       </c>
       <c r="E95">
-        <f>1.57177657234968*SIN(0.582390163355051+A95)</f>
+        <f>SIN(A95)+SIN(COS(A95))</f>
       </c>
       <c r="F95">
-        <f>1.68689002995008*COS(0.775844995210273-A95)</f>
-      </c>
-      <c r="G95">
         <f>COS(A95)+SIN(A95)</f>
       </c>
     </row>
@@ -2284,18 +1995,15 @@
         <v>1.194730045</v>
       </c>
       <c r="C96">
-        <f>SIN(0.799192046051646+A96)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A96)</f>
       </c>
       <c r="D96">
-        <f>SIN(0.799192046051646+A96)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A96)</f>
       </c>
       <c r="E96">
-        <f>1.57177657234968*SIN(0.582390163355051+A96)</f>
+        <f>SIN(A96)+SIN(COS(A96))</f>
       </c>
       <c r="F96">
-        <f>1.68689002995008*COS(0.775844995210273-A96)</f>
-      </c>
-      <c r="G96">
         <f>COS(A96)+SIN(A96)</f>
       </c>
     </row>
@@ -2307,18 +2015,15 @@
         <v>1.103734399</v>
       </c>
       <c r="C97">
-        <f>SIN(0.799192046051646+A97)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A97)</f>
       </c>
       <c r="D97">
-        <f>SIN(0.799192046051646+A97)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A97)</f>
       </c>
       <c r="E97">
-        <f>1.57177657234968*SIN(0.582390163355051+A97)</f>
+        <f>SIN(A97)+SIN(COS(A97))</f>
       </c>
       <c r="F97">
-        <f>1.68689002995008*COS(0.775844995210273-A97)</f>
-      </c>
-      <c r="G97">
         <f>COS(A97)+SIN(A97)</f>
       </c>
     </row>
@@ -2330,18 +2035,15 @@
         <v>0.358363262</v>
       </c>
       <c r="C98">
-        <f>SIN(0.799192046051646+A98)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A98)</f>
       </c>
       <c r="D98">
-        <f>SIN(0.799192046051646+A98)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A98)</f>
       </c>
       <c r="E98">
-        <f>1.57177657234968*SIN(0.582390163355051+A98)</f>
+        <f>SIN(A98)+SIN(COS(A98))</f>
       </c>
       <c r="F98">
-        <f>1.68689002995008*COS(0.775844995210273-A98)</f>
-      </c>
-      <c r="G98">
         <f>COS(A98)+SIN(A98)</f>
       </c>
     </row>
@@ -2353,18 +2055,15 @@
         <v>1.404936878</v>
       </c>
       <c r="C99">
-        <f>SIN(0.799192046051646+A99)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A99)</f>
       </c>
       <c r="D99">
-        <f>SIN(0.799192046051646+A99)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A99)</f>
       </c>
       <c r="E99">
-        <f>1.57177657234968*SIN(0.582390163355051+A99)</f>
+        <f>SIN(A99)+SIN(COS(A99))</f>
       </c>
       <c r="F99">
-        <f>1.68689002995008*COS(0.775844995210273-A99)</f>
-      </c>
-      <c r="G99">
         <f>COS(A99)+SIN(A99)</f>
       </c>
     </row>
@@ -2376,18 +2075,15 @@
         <v>-0.568650388</v>
       </c>
       <c r="C100">
-        <f>SIN(0.799192046051646+A100)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A100)</f>
       </c>
       <c r="D100">
-        <f>SIN(0.799192046051646+A100)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A100)</f>
       </c>
       <c r="E100">
-        <f>1.57177657234968*SIN(0.582390163355051+A100)</f>
+        <f>SIN(A100)+SIN(COS(A100))</f>
       </c>
       <c r="F100">
-        <f>1.68689002995008*COS(0.775844995210273-A100)</f>
-      </c>
-      <c r="G100">
         <f>COS(A100)+SIN(A100)</f>
       </c>
     </row>
@@ -2399,18 +2095,15 @@
         <v>-1.264811183</v>
       </c>
       <c r="C101">
-        <f>SIN(0.799192046051646+A101)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A101)</f>
       </c>
       <c r="D101">
-        <f>SIN(0.799192046051646+A101)</f>
+        <f>1.17172509636396*SIN(0.680346540941528+A101)</f>
       </c>
       <c r="E101">
-        <f>1.57177657234968*SIN(0.582390163355051+A101)</f>
+        <f>SIN(A101)+SIN(COS(A101))</f>
       </c>
       <c r="F101">
-        <f>1.68689002995008*COS(0.775844995210273-A101)</f>
-      </c>
-      <c r="G101">
         <f>COS(A101)+SIN(A101)</f>
       </c>
     </row>
